--- a/office-automation/test/Resources/テスト.xlsx
+++ b/office-automation/test/Resources/テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/miyako@github.com/4d-plugin-office-automation/office-automation/test/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F1307-3698-C740-A466-8DAF5058DDCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7706183-2FE4-CD46-A78A-38E8289CAAFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="16200" windowHeight="9400" xr2:uid="{B10D72D1-95AD-6943-A2BD-033890F6EAF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>fdsfsd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gufffgiy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nl mv cm,c</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5182845-56FC-5B4A-B1FD-FB43FEB45E0A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
@@ -428,8 +436,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
